--- a/MATLAB_code/TRUNCATED_CONE_2.xlsx
+++ b/MATLAB_code/TRUNCATED_CONE_2.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datos\Desktop\Jaswant\Tesis\Matlab\codigo de yuang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Prestress_finding\MATLAB_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7243303F-9C6D-4038-A622-882534070B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286722CC-A2D0-4998-B118-DE30CA525B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{F0E01AD4-B8B7-49C7-A7C2-F849DA5EB829}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F0E01AD4-B8B7-49C7-A7C2-F849DA5EB829}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="CONNECTIVITY" sheetId="1" r:id="rId1"/>
+    <sheet name="COORDINATES" sheetId="2" r:id="rId2"/>
+    <sheet name="FREE NODES" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -375,7 +375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA8FDE3-F2DE-4935-A1EE-990AE3BAA744}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
@@ -789,7 +789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458C59FC-5854-440C-86B0-9D9067123870}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
